--- a/data/meta/sf_building_permit_fields.xlsx
+++ b/data/meta/sf_building_permit_fields.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelms\Documents\Penn\CPLN-680\Permit_Metrics\static_data\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelms\Documents\Penn\CPLN-680\Permit_Metrics\data\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053A525-61E3-459E-8506-4593E15BFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661050EF-C790-4597-894B-052B24758A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="DataTypes">[1]!Table10[Types]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DataDictionary!$A$1:$C$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DataDictionary!$A$1:$D$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">DataDictionary!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
-  <si>
-    <t>Field Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
   <si>
     <t>Data Type</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
@@ -167,13 +161,121 @@
     <t>Supervisor district the permit falls within</t>
   </si>
   <si>
-    <t>Zip Code</t>
-  </si>
-  <si>
     <t>Zip code the permit falls within</t>
   </si>
   <si>
     <t>Neighborhoods</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Current Status Date</t>
+  </si>
+  <si>
+    <t>Filed Date</t>
+  </si>
+  <si>
+    <t>Issued Date</t>
+  </si>
+  <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>First Construction Document Date</t>
+  </si>
+  <si>
+    <t>Existing Construction Type</t>
+  </si>
+  <si>
+    <t>Existing Construction Type Description</t>
+  </si>
+  <si>
+    <t>Proposed Construction Type</t>
+  </si>
+  <si>
+    <t>Proposed Construction Type Description</t>
+  </si>
+  <si>
+    <t>Site Permit</t>
+  </si>
+  <si>
+    <t>Neighborhoods - Analysis Boundaries</t>
+  </si>
+  <si>
+    <t>Record ID</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>p_type</t>
+  </si>
+  <si>
+    <t>p_typedesc</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>stories_prop</t>
+  </si>
+  <si>
+    <t>stories</t>
+  </si>
+  <si>
+    <t>units_prop</t>
+  </si>
+  <si>
+    <t>units_exist</t>
+  </si>
+  <si>
+    <t>use_prop</t>
+  </si>
+  <si>
+    <t>const_prop</t>
+  </si>
+  <si>
+    <t>const_desc</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>date_status</t>
+  </si>
+  <si>
+    <t>date_filed</t>
+  </si>
+  <si>
+    <t>date_issued</t>
+  </si>
+  <si>
+    <t>date_complete</t>
   </si>
 </sst>
 </file>
@@ -217,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,11 +342,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +377,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,390 +704,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="E38" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="E39" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="E40" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="E41" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="E42" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="E43" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="E46" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>45</v>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C36 C2:C28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
